--- a/systematic_sample1_prices.xlsx
+++ b/systematic_sample1_prices.xlsx
@@ -1,37 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/germanmontoya/Python/vscode/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD05E8F-645D-DB46-96B6-5AAB99DFD101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="systematic_sample1_prices" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Price (£)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +61,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,1508 +385,1502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Price (£)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2291200</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1896000</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1194666</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>896799</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2599200</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>1535199</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>1574400</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>1258666</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>1224000</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2148000</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>831999</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2069599</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1440000</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>1745333</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>756000</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>900000</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>1839999</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>1458000</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>1267200</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>2912000</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>615333</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>709333</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>2706000</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2565000</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2533333</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2265600</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>2548000</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>2452800</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>778666</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>1153600</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>1656000</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>912000</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>936000</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>1364000</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>3060000</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>3093333</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>500000</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>632000</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>1152000</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>860000</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>2190000</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>480000</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>1222000</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>2916000</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>1120000</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>1664666</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>1202666</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>2265600</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>2563000</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>612000</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>946399</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>1910000</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>765000</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>557333</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>3936000</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>1212000</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>3340800</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>1628000</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>2232000</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>1845333</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>2208000</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>552000</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>924000</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>2163199</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>3344000</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>3039999</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>2755200</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>1123200</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>821333</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>1279333</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>705600</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>848000</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>2322000</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>3816000</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>1814400</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>2025000</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>2394000</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>890000</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>1540000</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>566666</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>1206666</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>2973333</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>3114000</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>2208000</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>576000</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>2356000</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>2590000</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>1175199</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>2178000</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>2702000</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>1808799</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>2952000</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>1142400</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>2161600</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>2392000</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>1570666</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>1965000</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>3920000</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>3195000</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>1177599</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>682666</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>928000</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>2180000</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>728000</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
         <v>835200</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
         <v>3631999</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
         <v>2380800</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
         <v>1716000</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>2280000</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
         <v>1508000</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>693333</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>4280000</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>1094400</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>2034999</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
         <v>2390000</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
         <v>2884000</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
         <v>3070399</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>1353333</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
         <v>573333</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
         <v>2904000</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
         <v>2291200</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
         <v>1422400</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
         <v>2432000</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
         <v>1742000</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
         <v>1826000</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
         <v>530000</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
         <v>684000</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
         <v>3664000</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
         <v>1275000</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
         <v>2790000</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
         <v>2969599</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
         <v>1566666</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
         <v>806400</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
         <v>2280000</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
         <v>1584000</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
         <v>3078000</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
         <v>1890000</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
         <v>1605333</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
         <v>896799</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
         <v>3184000</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
         <v>1235000</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
         <v>896000</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
         <v>1316000</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
         <v>3456000</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="n">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
         <v>2777600</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="n">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
         <v>748800</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="n">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
         <v>840000</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
         <v>1428000</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="n">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
         <v>3556800</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="n">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
         <v>1356000</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="n">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
         <v>2760000</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="n">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
         <v>1790000</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="n">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
         <v>530000</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="n">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
         <v>2368000</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="n">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
         <v>580800</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="n">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
         <v>2813333</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
         <v>1582000</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="n">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
         <v>2616000</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="n">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
         <v>2865600</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="n">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
         <v>1728999</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="n">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
         <v>1620000</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="n">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
         <v>1512000</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="n">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
         <v>2444000</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="n">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
         <v>4200000</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="n">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
         <v>2938000</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="n">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
         <v>1474000</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="n">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
         <v>2234400</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="n">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
         <v>2837333</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="n">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
         <v>1000000</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="n">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
         <v>990000</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="n">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
         <v>688000</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="n">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
         <v>1088000</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="n">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
         <v>1839199</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="n">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
         <v>1332000</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="n">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
         <v>2030400</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="n">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
         <v>3384000</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="n">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
         <v>4294000</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="n">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
         <v>462000</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="n">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
         <v>1958400</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="n">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
         <v>1292000</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="n">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182">
         <v>1470000</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="n">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183">
         <v>1148000</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="n">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184">
         <v>1368000</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="n">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185">
         <v>1289599</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="n">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186">
         <v>3416000</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="n">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187">
         <v>2844000</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="n">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188">
         <v>2678000</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="n">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189">
         <v>2103199</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="n">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190">
         <v>488000</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="n">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191">
         <v>2432000</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="n">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192">
         <v>840000</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="n">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193">
         <v>3424000</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="n">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194">
         <v>500000</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="n">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195">
         <v>1243200</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="n">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196">
         <v>1216000</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="n">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197">
         <v>1095000</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="n">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198">
         <v>3165000</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="n">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199">
         <v>1342000</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="n">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200">
         <v>3360000</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="n">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201">
         <v>1946666</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="n">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202">
         <v>2464000</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="n">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203">
         <v>3135000</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="n">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204">
         <v>3819000</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="n">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205">
         <v>1190400</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="n">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206">
         <v>968000</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="n">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207">
         <v>992000</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="n">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208">
         <v>2842000</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="n">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209">
         <v>1946000</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="n">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210">
         <v>2327000</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="n">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211">
         <v>1620000</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="n">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212">
         <v>2880000</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="n">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213">
         <v>1051333</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="n">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214">
         <v>1176000</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="n">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215">
         <v>753333</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="n">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216">
         <v>1320000</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="n">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217">
         <v>1880666</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="n">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218">
         <v>960000</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="n">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219">
         <v>2453000</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="n">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220">
         <v>1950000</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="n">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221">
         <v>853333</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="n">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222">
         <v>512000</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="n">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223">
         <v>3283200</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="n">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224">
         <v>1836000</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="n">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225">
         <v>1876000</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="n">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226">
         <v>2480000</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="n">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227">
         <v>3402000</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="n">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228">
         <v>1240000</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="n">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229">
         <v>2546000</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="n">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230">
         <v>1726399</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="n">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231">
         <v>1022400</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="n">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232">
         <v>2246399</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="n">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233">
         <v>1668800</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="n">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234">
         <v>1555200</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="n">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235">
         <v>1786000</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="n">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236">
         <v>1080000</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="n">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237">
         <v>1568000</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="n">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238">
         <v>2445000</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="n">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239">
         <v>2600000</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="n">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240">
         <v>984000</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="n">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241">
         <v>1798666</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="n">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242">
         <v>2010000</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="n">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243">
         <v>2470000</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="n">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244">
         <v>1093333</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="n">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245">
         <v>2059200</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="n">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246">
         <v>1504800</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="n">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247">
         <v>1875000</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="n">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248">
         <v>1240000</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="n">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249">
         <v>3384000</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="n">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250">
         <v>1400000</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="n">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251">
         <v>2321000</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="n">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252">
         <v>1236000</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="n">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253">
         <v>3148800</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="n">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254">
         <v>1560000</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="n">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255">
         <v>1128000</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="n">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256">
         <v>1800000</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="n">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257">
         <v>2342400</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="n">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258">
         <v>1792000</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="n">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259">
         <v>1416000</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="n">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260">
         <v>1752666</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="n">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261">
         <v>4104000</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" t="n">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262">
         <v>2880000</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" t="n">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263">
         <v>1164000</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" t="n">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264">
         <v>2314666</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" t="n">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265">
         <v>2380000</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="n">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266">
         <v>2736000</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="n">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267">
         <v>832000</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="n">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268">
         <v>2748000</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="n">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269">
         <v>2223000</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="n">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270">
         <v>1770000</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="n">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271">
         <v>691200</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" t="n">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272">
         <v>1399200</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" t="n">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273">
         <v>881599</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="n">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274">
         <v>1360000</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="n">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275">
         <v>1600000</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="n">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276">
         <v>4104000</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="n">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277">
         <v>2916000</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="n">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278">
         <v>606666</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" t="n">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279">
         <v>907200</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="n">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280">
         <v>2832000</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="n">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281">
         <v>624799</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="n">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282">
         <v>2542400</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" t="n">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283">
         <v>1842999</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="n">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284">
         <v>3636000</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" t="n">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285">
         <v>2754000</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" t="n">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286">
         <v>788666</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" t="n">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287">
         <v>3904000</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" t="n">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288">
         <v>740666</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" t="n">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289">
         <v>1920000</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" t="n">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290">
         <v>848666</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" t="n">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291">
         <v>3405000</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="n">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292">
         <v>3192000</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" t="n">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293">
         <v>556800</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" t="n">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294">
         <v>1414399</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="n">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295">
         <v>2960000</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" t="n">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296">
         <v>3027333</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" t="n">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297">
         <v>1488000</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" t="n">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298">
         <v>1535199</v>
       </c>
     </row>
